--- a/inegalites/data/variables_INEGALITES.xlsx
+++ b/inegalites/data/variables_INEGALITES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DataViz\Data\Variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\inegalites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96426B-0025-4D8A-AF6E-922D1FDBDCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACE909-ACB1-4B7A-947B-E95D2B0ACB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>traj_1</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant connu un accès rapide à l’emploi durable à l'emploi à durée indéterminée</t>
-  </si>
-  <si>
     <t>traj_2</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Proportion de sortants ayant connu un chômage persistant ou récurrent</t>
+  </si>
+  <si>
+    <t>Proportion de sortants ayant connu un accès rapide et durable à l'emploi à durée indéterminée</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="8"/>
@@ -707,10 +707,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8"/>
@@ -723,10 +723,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="8"/>
@@ -739,10 +739,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8"/>
@@ -933,6 +933,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DCE2AD71575ED409F6CD8D87660A7B5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e7a409e0b47e02996c47cd99ab55c69c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3559f96-a391-4298-a476-5fa029e2109e" xmlns:ns3="e8254419-5e3e-4d09-9ab1-694bd035361a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ec4d4004c5339e4d0b1f4fd079361e4" ns2:_="" ns3:_="">
     <xsd:import namespace="a3559f96-a391-4298-a476-5fa029e2109e"/>
@@ -1155,15 +1164,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1176,13 +1176,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC680D-B89C-4D4D-B787-C69FE927502B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC680D-B89C-4D4D-B787-C69FE927502B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3559f96-a391-4298-a476-5fa029e2109e"/>
+    <ds:schemaRef ds:uri="e8254419-5e3e-4d09-9ab1-694bd035361a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8254419-5e3e-4d09-9ab1-694bd035361a"/>
+    <ds:schemaRef ds:uri="a3559f96-a391-4298-a476-5fa029e2109e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>